--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>422667.6614381167</v>
+        <v>420780.0799217148</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>59.57566571082594</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>9.018650084624946</v>
+        <v>167.5990957313722</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>228.0516997358839</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>180.1644935464954</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>204.1186209319384</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>240.7291195778427</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.5268783873314</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.0179384138202</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.1680438379786</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185863</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>77.47976687070479</v>
+        <v>143.3158222056517</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>156.8540370090592</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>9.621991078756992</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>101.2898147863549</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>122.6519788371598</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>173.5954779282452</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532044</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.843519215191</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>42.20569823125394</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.84008750083566</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692791</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789486</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463136</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463136</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463128</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1851.286880367297</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1482.324363426885</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1482.324363426885</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1096.536110828641</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>685.5502060390334</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>267.5863979372202</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1851.286880367297</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1851.286880367297</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>719.019236646207</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U4" t="n">
-        <v>429.8456263007749</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V4" t="n">
-        <v>429.8456263007749</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>429.8456263007749</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>601.1385180919704</v>
+        <v>709.2075429298498</v>
       </c>
       <c r="C5" t="n">
-        <v>601.1385180919704</v>
+        <v>709.2075429298498</v>
       </c>
       <c r="D5" t="n">
-        <v>242.8728194852198</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>242.8728194852198</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>235.9273187360164</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>991.2778500677821</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>601.1385180919704</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="6">
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4750,19 +4750,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>1568.629239003653</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1210.363540396903</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>824.5752877986586</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>413.589383009051</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="C13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>986.0722252080359</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>758.0826743100185</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="Y13" t="n">
-        <v>537.2900951664884</v>
+        <v>97.21709146028579</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,19 +5261,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5364,19 +5364,19 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5434,7 +5434,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688071</v>
@@ -5443,43 +5443,43 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227916</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>874.9271131227916</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>874.9271131227916</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X16" t="n">
-        <v>796.6647223443018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.6620995918039</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W19" t="n">
-        <v>955.1031435655738</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X19" t="n">
-        <v>955.1031435655738</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.3105644220436</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,19 +5829,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028581</v>
+        <v>199.5300356889271</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1375.025382843599</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1151.239967633105</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>862.1113288466634</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V22" t="n">
-        <v>607.4268406407765</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038159</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028581</v>
+        <v>199.5300356889271</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U25" t="n">
-        <v>786.082206476518</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V25" t="n">
-        <v>531.397718270631</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583034</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,28 +6215,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.308300601151</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952641</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583034</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541573</v>
+        <v>439.5324299542176</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076212</v>
+        <v>326.3571123076814</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766563</v>
+        <v>232.0013381767164</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756341</v>
+        <v>139.8491098756939</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590944</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386984</v>
+        <v>902.6804289818924</v>
       </c>
       <c r="X31" t="n">
-        <v>785.765981522052</v>
+        <v>730.4517433652459</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030261</v>
+        <v>565.4200295030865</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>231.9043177021526</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>380.9740019042124</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6835,34 +6835,34 @@
         <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010311</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,40 +6914,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6959,22 +6959,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,28 +7163,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,34 +7424,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506732</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,37 +7582,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045214</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010324</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,13 +7661,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,55 +7801,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>39.88923345256728</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>8.406710013102156</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>145.2351313103795</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>286.5092576192344</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>32.92248665775634</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>158.8724419039331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3549544986123578</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>148.2298885183324</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>10.39278408956864</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,19 +23938,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>242.515652245071</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>65.95700631227295</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>75.26883114644345</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>78.54216539558283</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338662</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338642</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316312027</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571479</v>
+        <v>55.21598883571496</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.541309222702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1057613.822201223</v>
+        <v>1057613.822201224</v>
       </c>
     </row>
     <row r="10">
@@ -26314,46 +26314,46 @@
         <v>348942.7521923205</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923207</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
+        <v>332374.7007770523</v>
+      </c>
+      <c r="F2" t="n">
         <v>332374.7007770524</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>332374.7007770524</v>
+      </c>
+      <c r="H2" t="n">
         <v>332374.7007770526</v>
       </c>
-      <c r="G2" t="n">
-        <v>332374.7007770523</v>
-      </c>
-      <c r="H2" t="n">
-        <v>332374.7007770525</v>
-      </c>
       <c r="I2" t="n">
-        <v>332374.7007770523</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="J2" t="n">
-        <v>332374.7007770524</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="K2" t="n">
-        <v>345798.8167434798</v>
+        <v>345798.8167434796</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="M2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923206</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086675</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284563</v>
       </c>
     </row>
     <row r="4">
@@ -26427,10 +26427,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,25 +26439,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106725</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="M4" t="n">
         <v>44593.39482819117</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819121</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-489517.0728721578</v>
+        <v>-489517.0728721579</v>
       </c>
       <c r="C6" t="n">
-        <v>100450.8063423868</v>
+        <v>100450.8063423867</v>
       </c>
       <c r="D6" t="n">
-        <v>100450.8063423867</v>
+        <v>100450.8063423866</v>
       </c>
       <c r="E6" t="n">
-        <v>-306947.269235431</v>
+        <v>-307044.7283614034</v>
       </c>
       <c r="F6" t="n">
-        <v>218212.7672414652</v>
+        <v>218115.3081154929</v>
       </c>
       <c r="G6" t="n">
-        <v>218212.7672414649</v>
+        <v>218115.3081154929</v>
       </c>
       <c r="H6" t="n">
-        <v>218212.7672414651</v>
+        <v>218115.308115493</v>
       </c>
       <c r="I6" t="n">
-        <v>218212.767241465</v>
+        <v>218115.308115493</v>
       </c>
       <c r="J6" t="n">
-        <v>41789.54804887201</v>
+        <v>41692.08892290002</v>
       </c>
       <c r="K6" t="n">
-        <v>164668.772809344</v>
+        <v>164650.2790714096</v>
       </c>
       <c r="L6" t="n">
         <v>196291.3447432369</v>
       </c>
       <c r="M6" t="n">
-        <v>71833.2363102667</v>
+        <v>71833.23631026663</v>
       </c>
       <c r="N6" t="n">
-        <v>206634.2515441038</v>
+        <v>206634.2515441039</v>
       </c>
       <c r="O6" t="n">
-        <v>206634.2515441038</v>
+        <v>206634.251544104</v>
       </c>
       <c r="P6" t="n">
-        <v>162471.6462412581</v>
+        <v>162471.6462412584</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964064</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108343</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>264.3471070535312</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>216.0164553734593</v>
+        <v>57.43600972671211</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>126.631341884799</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>233.6196764742996</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>209.6655490888566</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>10.49504793044656</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>120.4387434050069</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.56671493827463</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>289.1469384085916</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>682.9598737318699</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>257.6644149691264</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>394.4928362664038</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>619.7038310172472</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>240.015901589281</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>136.0477032746128</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>408.1301468599573</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478582</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>383.8211928074494</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
